--- a/SpotifyClone-NormalizedTable.xlsx
+++ b/SpotifyClone-NormalizedTable.xlsx
@@ -332,12 +332,6 @@
     <t>song</t>
   </si>
   <si>
-    <t>Break My Soul</t>
-  </si>
-  <si>
-    <t>Alien Superstar</t>
-  </si>
-  <si>
     <t>Don’t Stop Me Now</t>
   </si>
   <si>
@@ -392,7 +386,13 @@
     <t>song_title</t>
   </si>
   <si>
-    <t>Virgo’s Groove</t>
+    <t>BREAK MY SOUL</t>
+  </si>
+  <si>
+    <t>VIRGO’S GROOVE</t>
+  </si>
+  <si>
+    <t>ALIEN SUPERSTAR</t>
   </si>
 </sst>
 </file>
@@ -668,12 +668,9 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -703,6 +700,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8477,18 +8483,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>93</v>
@@ -8557,24 +8563,24 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8756,16 +8762,16 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8817,21 +8823,21 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8955,26 +8961,26 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="53" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="17"/>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="51" t="s">
+      <c r="C43" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8983,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D44" s="40">
         <v>279</v>
@@ -9000,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="40">
         <v>369</v>
@@ -9017,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D46" s="40">
         <v>116</v>
@@ -9034,7 +9040,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" s="40">
         <v>203</v>
@@ -9051,7 +9057,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="40">
         <v>152</v>
@@ -9068,7 +9074,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49" s="40">
         <v>105</v>
@@ -9085,7 +9091,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="40">
         <v>207</v>
@@ -9102,7 +9108,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51" s="40">
         <v>267</v>
@@ -9119,7 +9125,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D52" s="40">
         <v>244</v>
@@ -9136,7 +9142,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="40">
         <v>100</v>
@@ -9156,8 +9162,8 @@
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="55" t="s">
-        <v>112</v>
+      <c r="B55" s="52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9167,18 +9173,18 @@
       <c r="C56" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="42" t="s">
-        <v>115</v>
+      <c r="D56" s="55" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="35">
         <v>1</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="54">
         <v>2</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="56">
         <v>44620.448553240742</v>
       </c>
     </row>
@@ -9186,10 +9192,10 @@
       <c r="B58" s="35">
         <v>1</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="54">
         <v>8</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="56">
         <v>43953.229571759257</v>
       </c>
     </row>
@@ -9197,10 +9203,10 @@
       <c r="B59" s="35">
         <v>1</v>
       </c>
-      <c r="C59" s="44">
+      <c r="C59" s="54">
         <v>10</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="56">
         <v>43896.473993055559</v>
       </c>
     </row>
@@ -9208,10 +9214,10 @@
       <c r="B60" s="35">
         <v>2</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="54">
         <v>7</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="56">
         <v>44778.337002314816</v>
       </c>
     </row>
@@ -9219,10 +9225,10 @@
       <c r="B61" s="35">
         <v>2</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="54">
         <v>10</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="56">
         <v>43832.319826388892</v>
       </c>
     </row>
@@ -9230,10 +9236,10 @@
       <c r="B62" s="35">
         <v>3</v>
       </c>
-      <c r="C62" s="44">
+      <c r="C62" s="54">
         <v>2</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="56">
         <v>44148.705011574071</v>
       </c>
     </row>
@@ -9241,10 +9247,10 @@
       <c r="B63" s="35">
         <v>3</v>
       </c>
-      <c r="C63" s="44">
+      <c r="C63" s="54">
         <v>10</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="56">
         <v>44170.776736111111</v>
       </c>
     </row>
@@ -9252,10 +9258,10 @@
       <c r="B64" s="35">
         <v>4</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="54">
         <v>8</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="56">
         <v>44423.71539351852</v>
       </c>
     </row>
@@ -9263,10 +9269,10 @@
       <c r="B65" s="35">
         <v>5</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="54">
         <v>5</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="56">
         <v>44570.072604166664</v>
       </c>
     </row>
@@ -9274,76 +9280,76 @@
       <c r="B66" s="35">
         <v>5</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="54">
         <v>8</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D66" s="56">
         <v>44049.641469907408</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="43">
+      <c r="B67" s="42">
         <v>6</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="54">
         <v>1</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="56">
         <v>42759.021724537037</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="43">
+      <c r="B68" s="42">
         <v>6</v>
       </c>
-      <c r="C68" s="44">
+      <c r="C68" s="54">
         <v>7</v>
       </c>
-      <c r="D68" s="45">
+      <c r="D68" s="56">
         <v>43020.524537037039</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="43">
+      <c r="B69" s="42">
         <v>7</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="54">
         <v>4</v>
       </c>
-      <c r="D69" s="45">
+      <c r="D69" s="56">
         <v>40892.938067129631</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="43">
+      <c r="B70" s="42">
         <v>8</v>
       </c>
-      <c r="C70" s="44">
+      <c r="C70" s="54">
         <v>4</v>
       </c>
-      <c r="D70" s="45">
+      <c r="D70" s="56">
         <v>40985.622696759259</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="43">
+      <c r="B71" s="42">
         <v>9</v>
       </c>
-      <c r="C71" s="44">
+      <c r="C71" s="54">
         <v>9</v>
       </c>
-      <c r="D71" s="45">
+      <c r="D71" s="56">
         <v>44616.884976851848</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="43">
+      <c r="B72" s="42">
         <v>10</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C72" s="54">
         <v>3</v>
       </c>
-      <c r="D72" s="45">
+      <c r="D72" s="56">
         <v>42351.354421296295</v>
       </c>
     </row>
@@ -9352,15 +9358,15 @@
       <c r="C73" s="15"/>
     </row>
     <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="55" t="s">
-        <v>114</v>
+      <c r="B74" s="52" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9413,7 +9419,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="46">
+      <c r="B82" s="43">
         <v>4</v>
       </c>
       <c r="C82" s="35">
@@ -9421,7 +9427,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="46">
+      <c r="B83" s="43">
         <v>5</v>
       </c>
       <c r="C83" s="35">
@@ -9429,7 +9435,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="46">
+      <c r="B84" s="43">
         <v>5</v>
       </c>
       <c r="C84" s="35">
@@ -9437,7 +9443,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="47">
+      <c r="B85" s="44">
         <v>6</v>
       </c>
       <c r="C85" s="35">
@@ -9445,7 +9451,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="48">
+      <c r="B86" s="45">
         <v>6</v>
       </c>
       <c r="C86" s="35">
@@ -9453,7 +9459,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="48">
+      <c r="B87" s="45">
         <v>7</v>
       </c>
       <c r="C87" s="35">
@@ -9461,7 +9467,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="48">
+      <c r="B88" s="45">
         <v>9</v>
       </c>
       <c r="C88" s="35">
@@ -9469,7 +9475,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="48">
+      <c r="B89" s="45">
         <v>10</v>
       </c>
       <c r="C89" s="35">
